--- a/xlsx/巴林_intext.xlsx
+++ b/xlsx/巴林_intext.xlsx
@@ -29,7 +29,7 @@
     <t>巴林 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_巴林</t>
+    <t>体育运动_体育运动_伊朗_巴林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97%E5%9B%BD%E6%97%97</t>
